--- a/apps/POLite/dna-score-gals-batch-dir/sequences/sizes.xlsx
+++ b/apps/POLite/dna-score-gals-batch-dir/sequences/sizes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmoz/Documents/POETS/tinsel/apps/POLite/dna-score-gals-batch-dir/sequences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B16AD-325C-B64A-9118-A93F594CE3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80380D8-B075-7544-855A-2E14AEEF03C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{114CE0F8-90BA-8549-938C-C60D3889F550}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33380" windowHeight="20460" xr2:uid="{114CE0F8-90BA-8549-938C-C60D3889F550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -55,19 +55,244 @@
   </si>
   <si>
     <t>fmo3isoa-2</t>
+  </si>
+  <si>
+    <t>insulinisoa-1</t>
+  </si>
+  <si>
+    <t>insulinisoa-2</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Flavin-Containing Monooxygenase 3</t>
+  </si>
+  <si>
+    <t>Human Insulin</t>
+  </si>
+  <si>
+    <t>dmdisodp71b-1</t>
+  </si>
+  <si>
+    <t>dmdisodp71b-2</t>
+  </si>
+  <si>
+    <t>human dystrophin</t>
+  </si>
+  <si>
+    <t>krt16-1</t>
+  </si>
+  <si>
+    <t>krt16-2</t>
+  </si>
+  <si>
+    <t>Keratin 16 - Skin</t>
+  </si>
+  <si>
+    <t>tg-1</t>
+  </si>
+  <si>
+    <t>tg-2</t>
+  </si>
+  <si>
+    <t>thyroglobulin</t>
+  </si>
+  <si>
+    <t>RYR1</t>
+  </si>
+  <si>
+    <t>TOO BIG</t>
+  </si>
+  <si>
+    <t>pyruvate carboxylase</t>
+  </si>
+  <si>
+    <t>pc-1</t>
+  </si>
+  <si>
+    <t>pc-2</t>
+  </si>
+  <si>
+    <t>pcntiso2-1</t>
+  </si>
+  <si>
+    <t>pcntiso2-2</t>
+  </si>
+  <si>
+    <t>PCLB3-1</t>
+  </si>
+  <si>
+    <t>PCLB3-2</t>
+  </si>
+  <si>
+    <t>Phspholipase C Beta 3</t>
+  </si>
+  <si>
+    <t>kleb-1</t>
+  </si>
+  <si>
+    <t>kleb-2</t>
+  </si>
+  <si>
+    <t>IL6STiso2-1</t>
+  </si>
+  <si>
+    <t>IL6STiso1-2</t>
+  </si>
+  <si>
+    <t>lepr-1</t>
+  </si>
+  <si>
+    <t>lepr-2</t>
+  </si>
+  <si>
+    <t>leptin receptor</t>
+  </si>
+  <si>
+    <t>staphy-1</t>
+  </si>
+  <si>
+    <t>staphy-2</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus</t>
+  </si>
+  <si>
+    <t>steno-1</t>
+  </si>
+  <si>
+    <t>steno-2</t>
+  </si>
+  <si>
+    <t>Stenotrophomonas maltophilia</t>
+  </si>
+  <si>
+    <t>mlip-1</t>
+  </si>
+  <si>
+    <t>mlip-2</t>
+  </si>
+  <si>
+    <t>muscular LMNA interacting protein</t>
+  </si>
+  <si>
+    <t>ncf1-1</t>
+  </si>
+  <si>
+    <t>ncf1-2</t>
+  </si>
+  <si>
+    <t>neutrophil cytosolic factor 1</t>
+  </si>
+  <si>
+    <t>alpha-N-acetylgalactosaminidase</t>
+  </si>
+  <si>
+    <t>naga-1</t>
+  </si>
+  <si>
+    <t>naga-2</t>
+  </si>
+  <si>
+    <t>ngf-1</t>
+  </si>
+  <si>
+    <t>ngf-2</t>
+  </si>
+  <si>
+    <t>nerve growth factor (beta polypeptide)</t>
+  </si>
+  <si>
+    <t>pnpo-1</t>
+  </si>
+  <si>
+    <t>pnpo-2</t>
+  </si>
+  <si>
+    <t>pyridoxamine 5'-phosphate oxidase</t>
+  </si>
+  <si>
+    <t>tnxb-1</t>
+  </si>
+  <si>
+    <t>tnxb-2</t>
+  </si>
+  <si>
+    <t>tenascin</t>
+  </si>
+  <si>
+    <t>tpo-1</t>
+  </si>
+  <si>
+    <t>tpo-2</t>
+  </si>
+  <si>
+    <t>thyroid peroxidase</t>
+  </si>
+  <si>
+    <t>lpl-1</t>
+  </si>
+  <si>
+    <t>lpl-2</t>
+  </si>
+  <si>
+    <t>lipoprotein lipase</t>
+  </si>
+  <si>
+    <t>pogz-1</t>
+  </si>
+  <si>
+    <t>pogz-2</t>
+  </si>
+  <si>
+    <t>pogo transposable element derived with ZNF domain</t>
+  </si>
+  <si>
+    <t>interleukin 6 signal transducer</t>
+  </si>
+  <si>
+    <t>Total Nodes</t>
+  </si>
+  <si>
+    <t>RAW Processing time</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>avg seq</t>
+  </si>
+  <si>
+    <t>proc time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +315,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +335,1066 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>proc time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>302.38055493037245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>442.74145954495833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>788.999366286184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056.952695251779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1639.8658481717339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2077.2298861705221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2397.4995307611639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2814.607610307341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3068.928151651648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3556.9910036433885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3988.3981747062317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4639.4631154908429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5037.0205479032938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5619.601409352802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6568.0309073572425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6975.4804852425759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7410.8572378639165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8017.9977550508211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8433.9883803571847</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8985.4041645326124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.1381999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5702999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.148174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42431099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.621533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80295300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0799859999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.264308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6822649999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0940789999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8131499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3152529999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0679569999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7235740000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4094059999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2919710000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2870559999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2317599999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.319853999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD9D-B442-8F67-CDC84102F893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="958458927"/>
+        <c:axId val="958460559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="958458927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958460559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958460559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958458927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86378B2-2D83-014B-8238-24DC7B1447EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,74 +1694,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457BA4B3-0922-DF4C-BBAB-BFA6339D937D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f>B2*B4</f>
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>6.8464999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <f>B3*B5</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>294</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f>B6*B7</f>
+        <v>91434</v>
+      </c>
+      <c r="H7">
+        <v>8.1381999999999996E-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>91434</v>
+      </c>
+      <c r="M7">
+        <f>SQRT(L7)</f>
+        <v>302.38055493037245</v>
+      </c>
+      <c r="N7">
+        <v>8.1381999999999996E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>((0.0000001 * (1400000^2)) + (0.00001 * 1400000) + (0.0501))</f>
+        <v>196014.05009999999</v>
+      </c>
+      <c r="R7" s="3">
+        <f>Q7/60</f>
+        <v>3266.9008349999999</v>
+      </c>
+      <c r="S7">
+        <f>R7/60</f>
+        <v>54.448347249999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>396</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>196020</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M26" si="0">SQRT(L8)</f>
+        <v>442.74145954495833</v>
+      </c>
+      <c r="N8">
+        <v>9.5702999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>495</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <f>B8*B9</f>
+        <v>196020</v>
+      </c>
+      <c r="H9">
+        <v>9.5702999999999996E-2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>622520</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>788.999366286184</v>
+      </c>
+      <c r="N9">
+        <v>0.148174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>788</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1117149</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1056.952695251779</v>
+      </c>
+      <c r="N10">
+        <v>0.212672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <f>B10*B11</f>
+        <v>622520</v>
+      </c>
+      <c r="H11">
+        <v>0.148174</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>2689160</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1639.8658481717339</v>
+      </c>
+      <c r="N11">
+        <v>0.42431099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>1047</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>4314884</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2077.2298861705221</v>
+      </c>
+      <c r="N12">
+        <v>0.621533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>1067</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <f>B12*B13</f>
+        <v>1117149</v>
+      </c>
+      <c r="H13">
+        <v>0.212672</v>
+      </c>
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="L13">
+        <v>5748004</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>2397.4995307611639</v>
+      </c>
+      <c r="N13">
+        <v>0.80295300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1580</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>7922016</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2814.607610307341</v>
+      </c>
+      <c r="N14">
+        <v>1.0799859999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1702</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <f>B14*B15</f>
+        <v>2689160</v>
+      </c>
+      <c r="H15">
+        <v>0.42431099999999999</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>9418320</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3068.928151651648</v>
+      </c>
+      <c r="N15">
+        <v>1.264308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>2044</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>12652185</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>3556.9910036433885</v>
+      </c>
+      <c r="N16">
+        <v>1.6822649999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B17">
         <v>2111</v>
       </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <f>B16*B17</f>
+        <v>4314884</v>
+      </c>
+      <c r="H17">
+        <v>0.621533</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>15907320</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>3988.3981747062317</v>
+      </c>
+      <c r="N17">
+        <v>2.0940789999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>2396</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>21524618</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>4639.4631154908429</v>
+      </c>
+      <c r="N18">
+        <v>2.8131499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>2399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <f>B18*B19</f>
+        <v>5748004</v>
+      </c>
+      <c r="H19">
+        <v>0.80295300000000003</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>25371576</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>5037.0205479032938</v>
+      </c>
+      <c r="N19">
+        <v>3.3152529999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>2768</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>31579920</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>5619.601409352802</v>
+      </c>
+      <c r="N20">
+        <v>4.0679569999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21">
+        <v>2862</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <f>B20*B21</f>
+        <v>7922016</v>
+      </c>
+      <c r="H21">
+        <v>1.0799859999999999</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>43139030</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>6568.0309073572425</v>
+      </c>
+      <c r="N21">
+        <v>5.7235740000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>3048</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>48657328</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>6975.4804852425759</v>
+      </c>
+      <c r="N22">
+        <v>6.4094059999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>3090</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <f>B22*B23</f>
+        <v>9418320</v>
+      </c>
+      <c r="H23">
+        <v>1.264308</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>54920805</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>7410.8572378639165</v>
+      </c>
+      <c r="N23">
+        <v>7.2919710000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>3549</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>64288288</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>8017.9977550508211</v>
+      </c>
+      <c r="N24">
+        <v>8.2870559999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>3565</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <f>B24*B25</f>
+        <v>12652185</v>
+      </c>
+      <c r="H25">
+        <v>1.6822649999999999</v>
+      </c>
+      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>71132160</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>8433.9883803571847</v>
+      </c>
+      <c r="N25">
+        <v>9.2317599999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>3960</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>80737488</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>8985.4041645326124</v>
+      </c>
+      <c r="N26">
+        <v>10.319853999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4017</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f>B26*B27</f>
+        <v>15907320</v>
+      </c>
+      <c r="H27">
+        <v>2.0940789999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>4621</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4658</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <f>B28*B29</f>
+        <v>21524618</v>
+      </c>
+      <c r="H29">
+        <v>2.8131499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>4968</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>5107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <f>B30*B31</f>
+        <v>25371576</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.3152529999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>5520</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5721</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <f>B32*B33</f>
+        <v>31579920</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4.0679569999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>6490</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>6647</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <f>B34*B35</f>
+        <v>43139030</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5.7235740000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>6959</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>6992</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <f>B36*B37</f>
+        <v>48657328</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6.4094059999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>7365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>7457</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39">
+        <f>B38*B39</f>
+        <v>54920805</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7.2919710000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>8012</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>8024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <f>B40*B41</f>
+        <v>64288288</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8.2870559999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>8420</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>8448</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <f>B42*B43</f>
+        <v>71132160</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9.2317599999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>8944</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>9027</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <f>B44*B45</f>
+        <v>80737488</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10.319853999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46">
+        <v>9244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>9378</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>10020</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>10482</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>39000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="K7:M45">
+    <sortCondition ref="K7"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>